--- a/docs/chronicles_questions.xlsx
+++ b/docs/chronicles_questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emitikka/Desktop/pyam/idantutkimus-vol29-nro4/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4D5A11-3A87-1745-ADE4-A27EE61CF425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6512CB8-FC01-4546-A55C-7DDB5676FF10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23820" windowHeight="12080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38260" windowHeight="17120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
-  <si>
-    <t>variable</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
   <si>
     <t>q21</t>
   </si>
@@ -43,9 +37,6 @@
     <t>age</t>
   </si>
   <si>
-    <t>Скажите, сколько вам полных лет?</t>
-  </si>
-  <si>
     <t>edu_gr</t>
   </si>
   <si>
@@ -61,72 +52,33 @@
     <t>q8_1</t>
   </si>
   <si>
-    <t>Знакомые, родственники, коллеги</t>
-  </si>
-  <si>
     <t>q8_2</t>
   </si>
   <si>
-    <t>Телевидение</t>
-  </si>
-  <si>
     <t>q8_5</t>
   </si>
   <si>
-    <t>Ютьюб-каналы</t>
-  </si>
-  <si>
     <t>q8_9</t>
   </si>
   <si>
-    <t>Не слежу за информацией о военной операции</t>
-  </si>
-  <si>
     <t>q8_8</t>
   </si>
   <si>
-    <t>Разные интернет-сайты, социальные сети, мессенджеры</t>
-  </si>
-  <si>
     <t>q8_6</t>
   </si>
   <si>
-    <t>Телеграм-каналы</t>
-  </si>
-  <si>
     <t>q4_2</t>
   </si>
   <si>
-    <t>Доход вашей семьи снизился</t>
-  </si>
-  <si>
     <t>q6</t>
   </si>
   <si>
-    <t>Участвует/участвовал ли кто-то из ваших родных в военной операции в Украине (неважно, на фронте или в тылу) или никто не участвует/не участвовал?</t>
-  </si>
-  <si>
-    <t>q10</t>
-  </si>
-  <si>
-    <t>Как вы полагаете, в ближайшие полгода ваше материальное положение (положение вашей семьи) точно ухудшится, скорее ухудшится, останется таким же, скорее улучшится или точно улучшится?</t>
-  </si>
-  <si>
     <t>q4_1</t>
   </si>
   <si>
-    <t>Вас сократили на работе</t>
-  </si>
-  <si>
     <t>q4_3</t>
   </si>
   <si>
-    <t>Вы закупали продукты и бытовые товары впрок</t>
-  </si>
-  <si>
-    <t>suomennos</t>
-  </si>
-  <si>
     <t>Olkaa hyvä ja kertokaa, kannatatteko, ettekö kannata Venäjän sotilaallista operaatiota Ukrainan alueella, vai ettekö osaa vastata yksiselitteisesti tai halua vastata tähän kysymykseen?</t>
   </si>
   <si>
@@ -142,47 +94,116 @@
     <t>Asutteko kylässä vai kaupungissa?</t>
   </si>
   <si>
-    <t>Tuttuja, sukulaisia, kollegoita</t>
-  </si>
-  <si>
-    <t>Mistä tiedonlähteestä saatte tietonne sotaoperaation tapahtumista: Televisio</t>
-  </si>
-  <si>
-    <t>Mistä tiedonlähteestä saatte tietonne sotaoperaation tapahtumista: YouTube-kanavat</t>
-  </si>
-  <si>
-    <t>Mistä tiedonlähteestä saatte tietonne sotaoperaation tapahtumista: En seuraa tiedonvälitystä sotaoperaatiosta</t>
-  </si>
-  <si>
-    <t>Mistä tiedonlähteestä saatte tietonne sotaoperaation tapahtumista: Erilaiset internet-sivut, sosiaalisen median sivut, viestipalvelut</t>
-  </si>
-  <si>
-    <t>Mistä tiedonlähteestä saatte tietonne sotaoperaation tapahtumista: Telegram-kanavat</t>
-  </si>
-  <si>
-    <t>Perheen tulot vähentyneet</t>
-  </si>
-  <si>
-    <t>Osallistuuko/osallistuiko joku sukulaisistanne sotilaalliseen operaatioon Ukrainassa (rintamalla tai selustassa) vai eikö kukaan osallistu/osallistunut?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luuletteko perheenne materiaalisen tilanteen ehdottomasti huonontuvan, ennemmin huonontuvan, pysyvän samana, ennemmin paranevan vai ehdottomasti paranevan seuraavan puolen vuoden aikana? </t>
-  </si>
-  <si>
-    <t>Teidät irtisanottiin töistä</t>
-  </si>
-  <si>
-    <t>Ostitte elintarvikkeita ja arjen tarpeita tulevan varalle</t>
+    <t>Сколько полных лет вам исполнилось?</t>
+  </si>
+  <si>
+    <t>Из каких источников вы получаете информацию о военной операции России на территории Украины, неважно, российские они, украинские или какие-то иные? – Знакомые, родственники, коллеги</t>
+  </si>
+  <si>
+    <t>Из каких источников вы получаете информацию о военной операции России на территории Украины, неважно, российские они, украинские или какие-то иные? – Телевидение</t>
+  </si>
+  <si>
+    <t>Из каких источников вы получаете информацию о военной операции России на территории Украины, неважно, российские они, украинские или какие-то иные? – Ютьюб-каналы</t>
+  </si>
+  <si>
+    <t>Из каких источников вы получаете информацию о военной операции России на территории Украины, неважно, российские они, украинские или какие-то иные? – Не слежу за информацией о военной операции</t>
+  </si>
+  <si>
+    <t>Из каких источников вы получаете информацию о военной операции России на территории Украины, неважно, российские они, украинские или какие-то иные? – Разные интернет-сайты, социальные сети, мессенджеры</t>
+  </si>
+  <si>
+    <t>Из каких источников вы получаете информацию о военной операции России на территории Украины, неважно, российские они, украинские или какие-то иные? – Телеграм-каналы</t>
+  </si>
+  <si>
+    <t>Mistä tiedonlähteistä saatte tietonne Venäjän sotilaallisesta operaatiosta Ukrainan alueella? Ei ole väliä ovatko nämä venäläisi, ukrainalaisia tai muita lähteitä. – Tutuilta, sukulaisilta, kollegoilta</t>
+  </si>
+  <si>
+    <t>Mistä tiedonlähteistä saatte tietonne Venäjän sotilaallisesta operaatiosta Ukrainan alueella? Ei ole väliä ovatko nämä venäläisi, ukrainalaisia tai muita lähteitä. – Televisiosta</t>
+  </si>
+  <si>
+    <t>Mistä tiedonlähteistä saatte tietonne Venäjän sotilaallisesta operaatiosta Ukrainan alueella? Ei ole väliä ovatko nämä venäläisi, ukrainalaisia tai muita lähteitä.  – YouTube-kanavilta</t>
+  </si>
+  <si>
+    <t>Mistä tiedonlähteistä saatte tietonne Venäjän sotilaallisesta operaatiosta Ukrainan alueella? Ei ole väliä ovatko nämä venäläisi, ukrainalaisia tai muita lähteitä. – En seuraa tiedonvälitystä sotaoperaatiosta</t>
+  </si>
+  <si>
+    <t>Mistä tiedonlähteistä saatte tietonne Venäjän sotilaallisesta operaatiosta Ukrainan alueella? Ei ole väliä ovatko nämä venäläisi, ukrainalaisia tai muita lähteitä. – Erilaisilta internet-sivuilta, sosiaalisen median sivuilta, viestipalveluista</t>
+  </si>
+  <si>
+    <t>Mistä tiedonlähteistä saatte tietonne Venäjän sotilaallisesta operaatiosta Ukrainan alueella? Ei ole väliä ovatko nämä venäläisi, ukrainalaisia tai muita lähteitä. – Telegram-kanavilta</t>
+  </si>
+  <si>
+    <t>Что из перечисленного происходило с вами с начала военной операции в связи с текущей ситуацией в стране: Доход вашей семьи снизился</t>
+  </si>
+  <si>
+    <t>Mitä seuraavista asioista on tapahtunut nykyiseen tilanteeseen liittyvään sotilaallisen operaation alkamisen jälkeen: Perheen tulot vähentyneet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Участвует/участвовал ли кто-то из ваших родных в военной операции в Украине (неважно, на фронте или в тылу) или никто не участвует/не участвовал? </t>
+  </si>
+  <si>
+    <t>Osallistuuko/osallistuiko joku sukulaisistanne sotilaalliseen operaatioon Ukrainassa (ei väliä, tapahtuuko tämä rintamalla vai selustassa) vai eikö kukaan osallistu/osallistunut?</t>
+  </si>
+  <si>
+    <t>Что из перечисленного происходило с вами с начала военной операции в связи с текущей ситуацией в стране: Вас сократили на работе</t>
+  </si>
+  <si>
+    <t>Mitä seuraavista asioista on tapahtunut nykyiseen tilanteeseen liittyvään sotilaallisen operaation alkamisen jälkeen: Teidät irtisanottiin töistä</t>
+  </si>
+  <si>
+    <t>Что из перечисленного происходило с вами с начала военной операции в связи с текущей ситуацией в стране: Вы закупали продукты и бытовые товары впрок</t>
+  </si>
+  <si>
+    <t>Mitä seuraavista asioista on tapahtunut nykyiseen tilanteeseen liittyvään sotilaallisen operaation alkamisen jälkeen: Ostitte elintarvikkeita ja arjen tarpeita tulevan varalle</t>
+  </si>
+  <si>
+    <t>muuttuja</t>
+  </si>
+  <si>
+    <t>kysymys_venajaksi</t>
+  </si>
+  <si>
+    <t>kysymys_suomeksi</t>
+  </si>
+  <si>
+    <t>skaala</t>
+  </si>
+  <si>
+    <t>0 = En kannata, 1 = Kannatan</t>
+  </si>
+  <si>
+    <t>1 = 18–29-vuotta, 2 = 30–44-vuotta, 3 = 45–59-vuotta, 4 = 60-vuotta tai yli</t>
+  </si>
+  <si>
+    <t>0 = Ei korkeakoulutusta, 1 = Korkeakoulutettu</t>
+  </si>
+  <si>
+    <t>0 = Kylä, 1 = Kaupunki</t>
+  </si>
+  <si>
+    <t>0 = Ei, 1 = Kyllä</t>
+  </si>
+  <si>
+    <t>1 = Ei, 2 = Kyllä</t>
+  </si>
+  <si>
+    <t>0 = Nainen, 1 = Mies</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -208,8 +229,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,206 +530,245 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="160.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.6640625" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" customWidth="1"/>
+    <col min="3" max="3" width="178.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="C14" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="C15" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="D15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B16" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="C16" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" t="s">
-        <v>50</v>
+      <c r="D16" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
